--- a/Data/Costs stations configurations.xlsx
+++ b/Data/Costs stations configurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A28295-DAF2-4F99-AA0C-5BD00B98F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{09A28295-DAF2-4F99-AA0C-5BD00B98F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3B4253-821B-4F7B-B94F-07A96E51705A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{348B8686-914A-4D61-AB6D-CC61D143E471}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348B8686-914A-4D61-AB6D-CC61D143E471}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -127,8 +127,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +217,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$4:$J$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -246,7 +246,7 @@
                 <c:pt idx="8">
                   <c:v>0.16000006856300797</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>5.7371299999999952E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -392,7 +392,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$4:$J$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -421,7 +421,7 @@
                 <c:pt idx="8">
                   <c:v>0.16000006856300797</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>5.7371299999999952E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -576,12 +576,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Expected</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>% increase in driving and charging cost,</a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Driving and Charging Cost</a:t>
+                  <a:t>relative to minimum cost stations configuration</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -591,8 +596,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.3261448425245988"/>
-              <c:y val="0.85124252461423533"/>
+              <c:x val="0.28308250016929964"/>
+              <c:y val="0.84834743271495749"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -617,11 +622,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -652,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437815520"/>
@@ -730,7 +735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -765,7 +770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="826808416"/>
@@ -782,6 +787,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43057395877718307"/>
+          <c:y val="0.93778619837372867"/>
+          <c:w val="0.13885193262293402"/>
+          <c:h val="5.3528257312783774E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,7 +819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -836,7 +851,7 @@
           <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1743,17 +1758,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A155BD6-7AA2-42DD-8EF8-2EA0D753C20D}">
   <dimension ref="C3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="108" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -1774,8 +1789,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J4" cm="1">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" cm="1">
         <f t="array" ref="J4:J8">TRANSPOSE(D13:H13)</f>
         <v>0</v>
       </c>
@@ -1788,8 +1803,8 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J5">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="2">
         <v>4.6635111719289135E-2</v>
       </c>
       <c r="K5">
@@ -1799,8 +1814,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J6">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="2">
         <v>9.5445045087592703E-2</v>
       </c>
       <c r="K6">
@@ -1810,8 +1825,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J7">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="2">
         <v>0.14653123541880433</v>
       </c>
       <c r="K7">
@@ -1821,8 +1836,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J8">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="2">
         <v>0.19999983403699592</v>
       </c>
       <c r="K8">
@@ -1832,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>1</v>
       </c>
@@ -1845,7 +1860,7 @@
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="J9" cm="1">
+      <c r="J9" s="2" cm="1">
         <f t="array" ref="J9:J12">TRANSPOSE(E18:H18)</f>
         <v>3.7802003059482919E-2</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +1892,7 @@
       <c r="H10">
         <v>44.452394300000002</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>7.7032994427530921E-2</v>
       </c>
       <c r="K10">
@@ -1887,7 +1902,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4.6635000000000003E-2</v>
       </c>
@@ -1906,7 +1921,7 @@
       <c r="H11">
         <v>52</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>0.11774699676432157</v>
       </c>
       <c r="K11">
@@ -1916,23 +1931,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D12">
         <v>4217.7580495061302</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>4414.4536673497796</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>4620.3221567097999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>4835.79134719787</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>5061.3089594155599</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>0.16000006856300797</v>
       </c>
       <c r="K12">
@@ -1942,20 +1957,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="2">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
         <f>(E12-$D$12)/$D$12</f>
         <v>4.6635111719289135E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" ref="F13:H13" si="0">(F12-$D$12)/$D$12</f>
         <v>9.5445045087592703E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.14653123541880433</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>0.19999983403699592</v>
       </c>
@@ -1971,8 +1986,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J14">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="2">
         <v>0.11803406606369013</v>
       </c>
       <c r="K14">
@@ -1982,7 +1997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2016,7 @@
       <c r="H15">
         <v>39.17</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>0.18217713387804987</v>
       </c>
       <c r="K15">
@@ -2011,7 +2026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>3.7802000000000002E-2</v>
       </c>
@@ -2030,7 +2045,7 @@
       <c r="H16">
         <v>45</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>0.25000017287890774</v>
       </c>
       <c r="K16">
@@ -2040,23 +2055,23 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D17">
         <v>4217.7580495061302</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>4377.1977521977196</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>4542.6645818304096</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>4714.3863929140198</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>4892.5996266092898</v>
       </c>
-      <c r="J17" cm="1">
+      <c r="J17" s="2" cm="1">
         <f t="array" ref="J17:J20">TRANSPOSE(E28:H28)</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -2068,24 +2083,24 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
         <f>(E17-$D$17)/$D$17</f>
         <v>3.7802003059482919E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f>(F17-$D$17)/$D$17</f>
         <v>7.7032994427530921E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f>(G17-$D$17)/$D$17</f>
         <v>0.11774699676432157</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f>(H17-$D$17)/$D$17</f>
         <v>0.16000006856300797</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K18">
@@ -2095,8 +2110,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="J19">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K19">
@@ -2106,7 +2121,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2140,7 @@
       <c r="H20">
         <v>26.62</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>0.216</v>
       </c>
       <c r="K20">
@@ -2135,7 +2150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>5.73713E-2</v>
       </c>
@@ -2155,7 +2170,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" cm="1">
+      <c r="J21" s="2" cm="1">
         <f t="array" ref="J21:J22">TRANSPOSE(I28:J28)</f>
         <v>0.22500000000000001</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>D17</f>
         <v>4217.7580495061302</v>
@@ -2188,7 +2203,7 @@
         <f>$D$22*(1+$C$21)^H9</f>
         <v>5272.1982910440674</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="K22">
@@ -2198,25 +2213,25 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
         <f>(E22-$D$17)/$D$17</f>
         <v>5.7371299999999952E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f>(F22-$D$17)/$D$17</f>
         <v>0.11803406606369013</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f>(G22-$D$17)/$D$17</f>
         <v>0.18217713387804987</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f>(H22-$D$17)/$D$17</f>
         <v>0.25000017287890774</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2254,7 @@
         <v>395.04</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>402</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>1.2500000000000001E-2</v>
       </c>

--- a/Data/Costs stations configurations.xlsx
+++ b/Data/Costs stations configurations.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rojasa55\OneDrive - Universidad de los andes\Documentos\MOPTA-23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{09A28295-DAF2-4F99-AA0C-5BD00B98F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3B4253-821B-4F7B-B94F-07A96E51705A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA647E-9692-4107-B508-4238CE62D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348B8686-914A-4D61-AB6D-CC61D143E471}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="2" xr2:uid="{348B8686-914A-4D61-AB6D-CC61D143E471}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="12-5" sheetId="2" r:id="rId2"/>
+    <sheet name="13-5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>i</t>
   </si>
@@ -82,6 +84,18 @@
   </si>
   <si>
     <t>Caso 6</t>
+  </si>
+  <si>
+    <t>IMP (2% gap)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Scenario 5</t>
   </si>
 </sst>
 </file>
@@ -125,10 +139,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +642,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -657,7 +677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437815520"/>
@@ -735,7 +755,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -770,7 +790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="826808416"/>
@@ -819,7 +839,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -851,7 +871,757 @@
           <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12-5'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12-5'!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12-5'!$D$3:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>728.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>742.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>742.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>743.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>693.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>696.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>698.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9126-466C-BC5D-991136562F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12-5'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMP (2% gap)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12-5'!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12-5'!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9126-466C-BC5D-991136562F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444886064"/>
+        <c:axId val="445402032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444886064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445402032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445402032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444886064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -902,7 +1672,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1439,6 +2765,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44FE568-EF15-31E1-4424-EE33314372D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB60A75-698F-731B-9787-50E78BF07195}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,17 +3125,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A155BD6-7AA2-42DD-8EF8-2EA0D753C20D}">
   <dimension ref="C3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="108" workbookViewId="0">
+    <sheetView topLeftCell="G4" zoomScale="108" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J4" s="2" cm="1">
         <f t="array" ref="J4:J8">TRANSPOSE(D13:H13)</f>
         <v>0</v>
@@ -1803,7 +3170,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J5" s="2">
         <v>4.6635111719289135E-2</v>
       </c>
@@ -1814,7 +3181,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J6" s="2">
         <v>9.5445045087592703E-2</v>
       </c>
@@ -1825,7 +3192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J7" s="2">
         <v>0.14653123541880433</v>
       </c>
@@ -1836,7 +3203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J8" s="2">
         <v>0.19999983403699592</v>
       </c>
@@ -1847,7 +3214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1</v>
       </c>
@@ -1873,7 +3240,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +3269,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4.6635000000000003E-2</v>
       </c>
@@ -1931,7 +3298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>4217.7580495061302</v>
       </c>
@@ -1957,7 +3324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f>(E12-$D$12)/$D$12</f>
         <v>4.6635111719289135E-2</v>
@@ -1986,7 +3353,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J14" s="2">
         <v>0.11803406606369013</v>
       </c>
@@ -1997,7 +3364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +3393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>3.7802000000000002E-2</v>
       </c>
@@ -2055,7 +3422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>4217.7580495061302</v>
       </c>
@@ -2083,7 +3450,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <f>(E17-$D$17)/$D$17</f>
         <v>3.7802003059482919E-2</v>
@@ -2110,7 +3477,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J19" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -2121,7 +3488,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +3517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5.73713E-2</v>
       </c>
@@ -2182,7 +3549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>D17</f>
         <v>4217.7580495061302</v>
@@ -2213,7 +3580,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f>(E22-$D$17)/$D$17</f>
         <v>5.7371299999999952E-2</v>
@@ -2231,7 +3598,7 @@
         <v>0.25000017287890774</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +3621,7 @@
         <v>395.04</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>402</v>
       </c>
@@ -2275,7 +3642,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -2300,4 +3667,1097 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BFA76A-713A-4CF6-A9A9-20177F659188}">
+  <dimension ref="C2:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>728.15</v>
+      </c>
+      <c r="E3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>687</v>
+      </c>
+      <c r="E4">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>740.78</v>
+      </c>
+      <c r="E5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>742.96</v>
+      </c>
+      <c r="E6">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>742.7</v>
+      </c>
+      <c r="E7">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>743.96</v>
+      </c>
+      <c r="E8">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>693.24</v>
+      </c>
+      <c r="E9">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>696.79</v>
+      </c>
+      <c r="E10">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <v>698.28</v>
+      </c>
+      <c r="E11">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.09</v>
+      </c>
+      <c r="D12">
+        <v>703</v>
+      </c>
+      <c r="E12">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>676</v>
+      </c>
+      <c r="E13">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.11</v>
+      </c>
+      <c r="D14">
+        <v>676</v>
+      </c>
+      <c r="E14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>676</v>
+      </c>
+      <c r="E15">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.13</v>
+      </c>
+      <c r="D16">
+        <v>677</v>
+      </c>
+      <c r="E16">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17">
+        <v>678</v>
+      </c>
+      <c r="E17">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.15</v>
+      </c>
+      <c r="D18">
+        <v>676</v>
+      </c>
+      <c r="E18">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>680</v>
+      </c>
+      <c r="E19">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.17</v>
+      </c>
+      <c r="D20">
+        <v>676</v>
+      </c>
+      <c r="E20">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.18</v>
+      </c>
+      <c r="D21">
+        <v>678</v>
+      </c>
+      <c r="E21">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.19</v>
+      </c>
+      <c r="D22">
+        <v>676</v>
+      </c>
+      <c r="E22">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>680</v>
+      </c>
+      <c r="E23">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.21</v>
+      </c>
+      <c r="D24">
+        <v>676</v>
+      </c>
+      <c r="E24">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.22</v>
+      </c>
+      <c r="D25">
+        <v>676</v>
+      </c>
+      <c r="E25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.23</v>
+      </c>
+      <c r="D26">
+        <v>676</v>
+      </c>
+      <c r="E26">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.24</v>
+      </c>
+      <c r="D27">
+        <v>677</v>
+      </c>
+      <c r="E27">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <v>676</v>
+      </c>
+      <c r="E28">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.26</v>
+      </c>
+      <c r="D29">
+        <v>676</v>
+      </c>
+      <c r="E29">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.27</v>
+      </c>
+      <c r="D30">
+        <v>677</v>
+      </c>
+      <c r="E30">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D31">
+        <v>676</v>
+      </c>
+      <c r="E31">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D32">
+        <v>676</v>
+      </c>
+      <c r="E32">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54179489-36ED-43CA-A6D6-82F209889118}">
+  <dimension ref="B1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>4591</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44.21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>69.81</v>
+      </c>
+      <c r="H6" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>58.62</v>
+      </c>
+      <c r="D7" s="4">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>69.63</v>
+      </c>
+      <c r="H7" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="D8" s="4">
+        <v>70</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>70.84</v>
+      </c>
+      <c r="H8" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>61.16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>69.64</v>
+      </c>
+      <c r="H9" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9.36</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11.39</v>
+      </c>
+      <c r="D12" s="4">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19.37</v>
+      </c>
+      <c r="H12" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>18.82</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.51</v>
+      </c>
+      <c r="H16" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.82</v>
+      </c>
+      <c r="H27" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>25</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <v>26</v>
+      </c>
+      <c r="G30" s="3">
+        <v>11.23</v>
+      </c>
+      <c r="H30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>31</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4">
+        <v>33</v>
+      </c>
+      <c r="G37" s="3">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>